--- a/Алгоритм распределения profit.xlsx
+++ b/Алгоритм распределения profit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"> кэш внесенный пользователем</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Общая сумма кэша внесенного всеми проигравшими юзерами</t>
+  </si>
+  <si>
+    <t>= RawProfit * 0,9</t>
+  </si>
+  <si>
+    <t>= Bank - SumWin</t>
   </si>
 </sst>
 </file>
@@ -391,22 +397,22 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="2" max="2" width="66.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -414,7 +420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -422,7 +428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -430,7 +436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -438,7 +444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -446,7 +452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -454,20 +460,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Алгоритм распределения profit.xlsx
+++ b/Алгоритм распределения profit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"> кэш внесенный пользователем</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>= Bank - SumWin</t>
+  </si>
+  <si>
+    <t>= СashWin 1 + CashWin 2 +... CashWin n</t>
+  </si>
+  <si>
+    <t>= СashLose 1 + CashLose 2 +... CashLose n</t>
+  </si>
+  <si>
+    <t>= Cash 1 + Cash 2 +... Cash n</t>
   </si>
 </sst>
 </file>
@@ -397,14 +406,14 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="66.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,6 +436,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -451,6 +463,9 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -458,6 +473,9 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/Алгоритм распределения profit.xlsx
+++ b/Алгоритм распределения profit.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"> кэш внесенный пользователем</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>= Cash 1 + Cash 2 +... Cash n</t>
+  </si>
+  <si>
+    <t>Формулы</t>
+  </si>
+  <si>
+    <t>Описание</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,6 +426,12 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/Алгоритм распределения profit.xlsx
+++ b/Алгоритм распределения profit.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -484,7 +484,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
